--- a/biology/Médecine/Syndrome_d'Aicardi-Goutières/Syndrome_d'Aicardi-Goutières.xlsx
+++ b/biology/Médecine/Syndrome_d'Aicardi-Goutières/Syndrome_d'Aicardi-Goutières.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Syndrome_d%27Aicardi-Gouti%C3%A8res</t>
+          <t>Syndrome_d'Aicardi-Goutières</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le syndrome d’Aicardi-Goutières   est une encéphalopathie précoce avec calcifications des noyaux gris centraux, une atrophie cérébrale et  leucodystrophie. Il existe constamment chez les sujets atteints une augmentation de l’interféron alpha et des leucocytes dans le liquide céphalo-rachidien
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Syndrome_d%27Aicardi-Gouti%C3%A8res</t>
+          <t>Syndrome_d'Aicardi-Goutières</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Causes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une mutation sur le gène TREX1[2], sur SAMHD1[3], sur ADAR1[4], sur IFIH1[5] ou sur l'un des gènes formant la ribonucléase H2[6] ont été décrites.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une mutation sur le gène TREX1, sur SAMHD1, sur ADAR1, sur IFIH1 ou sur l'un des gènes formant la ribonucléase H2 ont été décrites.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Syndrome_d%27Aicardi-Gouti%C3%A8res</t>
+          <t>Syndrome_d'Aicardi-Goutières</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La grossesse est normale dans 90 % des cas. Quelquefois, le fœtus présente un retard de croissance intra-utérin ou une microcéphalie. Des calcifications intracérébrales ont été décrites en échographie. 
 Les premiers signes apparaissent vers trois mois avec arrêt du développement et apparition d’une microcéphalie. Le nourrisson dort beaucoup, est irritable, présente des problèmes d’alimentation et des épisodes d’hyperthermie sans cause infectieuse. L’acquisition de la parole est très rare chez ces enfants. 
@@ -573,7 +589,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Syndrome_d%27Aicardi-Gouti%C3%A8res</t>
+          <t>Syndrome_d'Aicardi-Goutières</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -591,7 +607,9 @@
           <t>Imagerie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L’imagerie par résonance magnétique montre les calcifications, la leucodystrophie comme un signal hyperintense en T2 principalement localisée au niveau des carrefours ventriculaires.
 </t>
@@ -604,7 +622,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Syndrome_d%27Aicardi-Gouti%C3%A8res</t>
+          <t>Syndrome_d'Aicardi-Goutières</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -622,7 +640,9 @@
           <t>Biologique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve"> Interféron alpha 
 La concentration dans le liquide céphalo-rachidien est supérieure à 2 IU par ml. Elle tend à diminuer avec le temps
@@ -637,7 +657,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Syndrome_d%27Aicardi-Gouti%C3%A8res</t>
+          <t>Syndrome_d'Aicardi-Goutières</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -655,11 +675,13 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>(fr) Site en français de renseignement sur les maladies rares et les médicaments orphelins
-(en) Online Mendelian Inheritance in Man, OMIM (TM). Johns Hopkins University, Baltimore, MD. MIM Number: 225750  [1]
-(en) Jean Aicardi, Yanick J Crow, Aicardi-Goutières Syndrome in GeneTests: Medical Genetics Information Resource (database online). Copyright, University of Washington, Seattle. 1993-2005 [2]</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(fr) Site en français de renseignement sur les maladies rares et les médicaments orphelins
+(en) Online Mendelian Inheritance in Man, OMIM (TM). Johns Hopkins University, Baltimore, MD. MIM Number: 225750  
+(en) Jean Aicardi, Yanick J Crow, Aicardi-Goutières Syndrome in GeneTests: Medical Genetics Information Resource (database online). Copyright, University of Washington, Seattle. 1993-2005 </t>
         </is>
       </c>
     </row>
